--- a/data/projects/20251215_001946_세모지/research/video_list.xlsx
+++ b/data/projects/20251215_001946_세모지/research/video_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:Y28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,70 +563,70 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>whzrHWVwWGY</t>
+          <t>j_JxDKSbHh8</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>제2의 IMF가 온다면? 경제 위기 전조증상 4가지와 개인 자산 지키는 법</t>
+          <t>법인 통장에 10억 있을때 세금 6.7%만 내는 법 | 절세미녀</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=whzrHWVwWGY</t>
+          <t>https://www.youtube.com/watch?v=j_JxDKSbHh8</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/whzrHWVwWGY/hqdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/j_JxDKSbHh8/hqdefault.jpg</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>UC1nmYBR3WmSeD0wyCLI_-Uw</t>
+          <t>UC2ByczqyZtt0Lj2DCkQuXJA</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>부자의경제학</t>
+          <t>절세미녀 김희연 회계사</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/channel/UC1nmYBR3WmSeD0wyCLI_-Uw</t>
+          <t>https://www.youtube.com/channel/UC2ByczqyZtt0Lj2DCkQuXJA</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>38600</v>
+        <v>123000</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2018-12-13T02:12:51Z</t>
+          <t>2014-06-07T08:10:02Z</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>12</v>
+        <v>685</v>
       </c>
       <c r="K2" t="n">
-        <v>968966</v>
+        <v>2384934</v>
       </c>
       <c r="L2" t="n">
-        <v>28977</v>
+        <v>8521</v>
       </c>
       <c r="M2" t="n">
-        <v>5351</v>
+        <v>393</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2025-11-26T08:35:58Z</t>
+          <t>2025-12-04T05:34:39Z</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>2149</v>
+        <v>80</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>35:49</t>
+          <t>1:20</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -637,43 +637,2893 @@
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr">
         <is>
-          <t>['경제위기', '경제전망', 'IMF', '국가부도', '금융위기', '인플레이션', '하이퍼인플레이션', '금리인상', '환율전망', '부동산폭락', '가계부채', '뱅크런', '화폐개혁', '안전자산', '달러투자', '금투자', '현금확보', '생존배낭', '각자도생', '경제공부', '부자의경제학', '재테크', '주식시장', '국채금리', '경기침체']</t>
+          <t>['절세미녀', '김희연 회계사']</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>여러분은 지금 이 순간, 우리 경제가 안전하다고 확신하시나요?
-1997년 IMF 외환위기 직전에도 대부분의 사람들은 평범한 일상을 보내고 있었습니다.
-국가가 무너지는 건 영화처럼 갑자기 폭발이 일어나는 것이 아닙니다.
-훨씬 더 조용하고, 훨씬 더 무섭게, 우리의 삶을 조여옵니다.
-오늘 영상에서는 국가 부도 위기가 닥칠 때 나타나는 4가지 징조와
-시스템 붕괴 시 가장 먼저 사라지는 것들,
-그리고 내 자산과 가족을 지키기 위한 현실적인 생존 전략을 담았습니다.
-불편하지만 반드시 알아야 할 진실, 지금 확인하세요.
-[타임스탬프]
-00:00 오프닝: 당신은 안전하다고 믿으십니까?
-02:11 수면 아래의 거대한 위험, 1,100조 국가 부채
-06:25 신뢰가 무너지는 순간: 뱅크런과 금융 시스템의 진실
-08:26 위기의 시작: 유동성 경색과 악순환
-12:15 경제 붕괴를 알리는 4가지 징조 (국채, 환율, 부동산, 기업부도)
-17:31 정부와 중앙은행이 당신을 지켜줄 수 없는 이유
-2</t>
+          <t>※ 디자인택스 대표 '김희연 회계사'
+👉🏻카카오톡상담 : https://bit.ly/46CEeJL
+👉🏻 홈페이지 : https://bit.ly/3UDfcFj
+👉🏻 블로그 :  https://bit.ly/3LX9f1b
+👉🏻전화상담 : tel 02-785-1249
+#증여세 #배우자증여 #부부증여 #배우자증여한도  
+[절세로 미래를 바꾸는 여자 : 디자인택스 세무회계 대표 김희연 회계사]
+- Email_designtax8899@naver.com
+- Instagram_@designtax
+- 연락처_02-785-1249
+- 주소_서울시 서초구 사임당로 174,강남미래타워 607호</t>
         </is>
       </c>
       <c r="U2" t="n">
+        <v>19.39</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="W2" t="n">
+        <v>19</v>
+      </c>
+      <c r="X2" t="n">
+        <v>125522.8</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>63.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Zerhr8YKmqY</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>"죽을 고생해 합격했는데 백수라니"…"원흉은 AI?" 젊은 회계사들의 절규 (자막뉴스) / SBS</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=Zerhr8YKmqY</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/Zerhr8YKmqY/hqdefault.jpg</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>UCkinYTS9IHqOEwR1Sze2JTw</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>SBS 뉴스</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/channel/UCkinYTS9IHqOEwR1Sze2JTw</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5110000</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2014-05-02T10:13:29Z</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>314358</v>
+      </c>
+      <c r="K3" t="n">
+        <v>692117</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4099</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3425</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2025-12-09T02:34:04Z</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>133</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>2:13</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>long_form</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>['850명', 'SBS NEWS', 'SBS 뉴스', 'custom:뉴스넷', 'format:리포트', 'genre:사회', 'language:한국어', 'location:서울', 'person:김민정', 'sbs', 'sbs 실시간', 'series:뉴스영상', 'source:영상', 'type:방송', '고생', '노동 일자리', '뉴스 실시간', '뉸', '미지정 회계사', '실시간뉴스', '에스비에스', '원흉은 ai', '인원', '취업 n수']</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>우리나라 8대 전문직 중 하나인 회계사 자격증이 유명무실해지고 있다는 우려가 현장에서 나오고 있습니다.
+회계사 시험 합격자는 회계 법인이나 일반 기업에서 2~3년 수습 기간을 거쳐야 공인회계사로 등록할 수 있는데, 자격증을 따도 받아주는 수습 기관이 없어 '미지정 회계사'가 늘어나고 있다는 겁니다.
+어제(8일) '공인회계사 선발 인원 정상화 비대위' 소속 회계사 40여 명은 정부서울청사 본관 정문 앞에 모여 이 사태를 즉시 해결하고, 관련 규정을 정비해달라고 정부에 요구했습니다.
+한국공인회계사회가 지난달 발표한 '회계사 수습기관 운영 현황 및 개선방향 연구' 자료에 따르면 올해 회계사 합격자 1,200명 가운데 수습기관 등록자는 10월 말 기준 338명, 전체의 26%에 불과했습니다.
+'취업 N수' 현상이 확산되고 있다는 뜻입니다.
+2024년 합격자 가운데 206명도 아직 미취업 상태입니다.
+이른바 빅4 회계법인은 매년 8백 명 정도의 신입 회계사를 뽑고 있습니다.
+업계</t>
+        </is>
+      </c>
+      <c r="U3" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="W3" t="n">
+        <v>14</v>
+      </c>
+      <c r="X3" t="n">
+        <v>49436.9</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>60.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4osogSFa7hA</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>"AI가 더 잘하는데 왜 사람 써?".."죽을 고생했는데도 백수" 절규 / SBS / 모아보는 뉴스</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=4osogSFa7hA</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/4osogSFa7hA/hqdefault.jpg</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>UCkinYTS9IHqOEwR1Sze2JTw</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>SBS 뉴스</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/channel/UCkinYTS9IHqOEwR1Sze2JTw</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5110000</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2014-05-02T10:13:29Z</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>314358</v>
+      </c>
+      <c r="K4" t="n">
+        <v>492516</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3106</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2466</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2025-12-14T00:00:11Z</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>490</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>8:10</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>long_form</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>['SBS NEWS', 'SBS뉴스', 'sbs뉴스', 'sbs8뉴스', '에스비에스', 'sbs 뉴스', 'SBS', '실시간', 'sbs 실시간', 'SBS 8뉴스', 'SBS 8시뉴스', 'SBS LIVE', 'sbs live', 'sbs 생중계', 'sbs 온에어', 'SBS 모닝와이드', 'sbs모바일24', '모바일24', 'sbsmobile24', 'sbs24시', 'sbs라이브']</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>00:00 "죽을 고생해 합격했는데 백수라니"…"원흉은 AI?" 젊은 회계사들의 절규 (자막뉴스) / SBS
+01:56 '아마존·메타' 합격했는데 반전…"AI가 해주는데 왜요?" / SBS 8뉴스
+04:05 사람이 하면 반나절, AI는 1분…"5년 차 변호사 수준" 깜짝 / SBS 8뉴스
+05:48 '99% 탈락' 요즘 개발자 현실…"한국인 안 뽑을래요" 왜? (자막뉴스) / SBS
+#SBS뉴스 #8뉴스 #실시간 으로 만나 보세요
+라이브 뉴스 채널 SBS 모바일24
+▶SBS 뉴스로 제보해주세요
+홈페이지: https://news.sbs.co.kr
+애플리케이션: 'SBS 뉴스' 앱 설치하고 제보
+카카오톡: 'SBS 뉴스'와 친구 맺고 채팅
+페이스북: 'SBS 뉴스' 검색해 메시지 전송
+이메일: sbs8news@sbs.co.kr
+문자:  #　누르고 6000 
+전화: 02-2113-6000
+▶SBS 뉴스 채널 구독하기 : https://n.sbs.co.kr/youtube
+▶SBS 뉴스</t>
+        </is>
+      </c>
+      <c r="U4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="W4" t="n">
+        <v>10</v>
+      </c>
+      <c r="X4" t="n">
+        <v>49251.6</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>60.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>L2fA_t9LXlg</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>대기업 프랜차이즈 저무는데 하이디라오는 뜨는 이유는? 확 바뀐 국내 F&amp;B 판도 분석 | B주류경제학</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=L2fA_t9LXlg</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/L2fA_t9LXlg/hqdefault.jpg</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>UCwXOKS-z1t9u6Axmm3blXug</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>머니그라피 Moneygraphy</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/channel/UCwXOKS-z1t9u6Axmm3blXug</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>475000</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2021-08-04T02:46:01.588763Z</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>636</v>
+      </c>
+      <c r="K5" t="n">
+        <v>518356</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5169</v>
+      </c>
+      <c r="M5" t="n">
+        <v>564</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-12-04T09:00:41Z</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>2358</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>39:18</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>long_form</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>['유정수', '이재용', '육식맨', '반지하유정수', '동네멋집', '카페 창업', '저가 커피', '프랜차이즈 카페', '빽다방', '메가커피', '컴포즈', '글로우서울', '이디야', '스타벅스', '런베뮤', '런던베이글', '런던베이글뮤지엄', '소금빵', '슈카월드', '슈카 etf 베이커리', '파리바게뜨', '베스킨라빈스', 'SPC']</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>헛개리카노 jmt
+재무덕후 이재용 회계사🤓와 함께하는
+소비문화 디깅 토크쇼, B주류경제학
+매주 목요일 오후 6시
+🔔구독, 좋아요, 알림설정🔔
+머니그라피 인스타그램: https://www.instagram.com/moneygraphyworld/
+제휴/광고 문의: moneygraphy@toss.im
+#B주류경제학 #이재용 #육식맨 #유정수 #반지하유정수</t>
+        </is>
+      </c>
+      <c r="U5" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="W5" t="n">
+        <v>19</v>
+      </c>
+      <c r="X5" t="n">
+        <v>27281.9</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>38.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>i4_ponIAPI4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>미국 주식 세금 2억이요? 1년 기다리면 0원 될 수 있습니다 | 절세미녀</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=i4_ponIAPI4</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/i4_ponIAPI4/hqdefault.jpg</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>UC2ByczqyZtt0Lj2DCkQuXJA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>절세미녀 김희연 회계사</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/channel/UC2ByczqyZtt0Lj2DCkQuXJA</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>123000</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2014-06-07T08:10:02Z</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>685</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1006322</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6428</v>
+      </c>
+      <c r="M6" t="n">
+        <v>461</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-12-11T06:09:23Z</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>70</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>1:10</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>long_form</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>['절세미녀', '김희연 회계사', '미국주식세금', '미국etf세금', 'etf투자방법']</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>※ 디자인택스 대표 '김희연 회계사'
+👉🏻카카오톡상담 : https://bit.ly/46CEeJL
+👉🏻 홈페이지 : https://bit.ly/3UDfcFj
+👉🏻 블로그 :  https://bit.ly/3LX9f1b
+👉🏻전화상담 : tel 02-785-1249
+#미국주식세금 #미국etf세금 #etf투자방법 
+[절세로 미래를 바꾸는 여자 : 디자인택스 세무회계 대표 김희연 회계사]
+- Email_designtax8899@naver.com
+- Instagram_@designtax
+- 연락처_02-785-1249
+- 주소_서울시 서초구 사임당로 174,강남미래타워 607호</t>
+        </is>
+      </c>
+      <c r="U6" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="W6" t="n">
+        <v>12</v>
+      </c>
+      <c r="X6" t="n">
+        <v>83860.2</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>66.8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Bvr7sgkc4zs</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>대한민국에서 프랜차이즈 창업 정말 조심해야 하는 이유 (더본코리아, 명륜당, 샤브올데이) | B주류경제학</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=Bvr7sgkc4zs</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/Bvr7sgkc4zs/hqdefault.jpg</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>UCwXOKS-z1t9u6Axmm3blXug</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>머니그라피 Moneygraphy</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/channel/UCwXOKS-z1t9u6Axmm3blXug</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>475000</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2021-08-04T02:46:01.588763Z</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>636</v>
+      </c>
+      <c r="K7" t="n">
+        <v>420536</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4841</v>
+      </c>
+      <c r="M7" t="n">
+        <v>537</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-12-11T09:00:30Z</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>1648</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>27:28</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>long_form</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>['육식맨', '이재용', '이재용 회계사', '유정수', '글로우서울', '더본코리아', '백종원', '반지하유정수', '동네멋집', '카페 창업', '자영업자', '샤브올데이', '명륜진사갈비', '명륜당', '대부업', '이삭토스트', '교촌', '교촌치킨', '빽다방', '흑백요리사2', '비주류']</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>육식맨 &amp; 유정수 조합 또 모시겠습니다...
+재무덕후 이재용 회계사🤓와 함께하는
+소비문화 디깅 토크쇼, B주류경제학
+매주 목요일 오후 6시
+🔔구독, 좋아요, 알림설정🔔
+머니그라피 인스타그램: https://www.instagram.com/moneygraphyworld/
+제휴/광고 문의: moneygraphy@toss.im</t>
+        </is>
+      </c>
+      <c r="U7" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="W7" t="n">
+        <v>12</v>
+      </c>
+      <c r="X7" t="n">
+        <v>35044.7</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>47.8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>FSO9Rj3ZUdo</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>7년 사이에 주가 -93%, 유럽 최대 게임회사였던 유비소프트에 무슨 일이? (이재용 회계사 초대석 1부)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=FSO9Rj3ZUdo</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/FSO9Rj3ZUdo/hqdefault.jpg</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>UCSgvQDek_7CQj08fu7kp1Iw</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>중년게이머 김실장</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/channel/UCSgvQDek_7CQj08fu7kp1Iw</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>434000</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2020-05-19T06:46:26.359089Z</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>737</v>
+      </c>
+      <c r="K8" t="n">
+        <v>282114</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M8" t="n">
+        <v>839</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-12-12T08:31:47Z</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
+        <v>4107</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>1:08:27</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>long_form</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>이재용 회계사님과 알아보는 유비소프트의 역사와 실적
+함께 보면 좋은 영상: https://youtu.be/7mqCUaB0-6U?si=8RGXfTW2tTwuRX5K</t>
+        </is>
+      </c>
+      <c r="U8" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="W8" t="n">
+        <v>11</v>
+      </c>
+      <c r="X8" t="n">
+        <v>25646.7</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>e7hk5pf3CY4</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>벤츠는 흔들리고 아우디는 멈췄다? 그사이 현대차가 승승장구하는 이유 (feat. 박스까남 신동헌) | B주류경제학</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=e7hk5pf3CY4</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/e7hk5pf3CY4/hqdefault.jpg</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>UCwXOKS-z1t9u6Axmm3blXug</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>머니그라피 Moneygraphy</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/channel/UCwXOKS-z1t9u6Axmm3blXug</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>475000</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2021-08-04T02:46:01.588763Z</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>636</v>
+      </c>
+      <c r="K9" t="n">
+        <v>276944</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2609</v>
+      </c>
+      <c r="M9" t="n">
+        <v>540</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-11-27T09:01:06Z</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>2215</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>36:55</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>long_form</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>['이재용', '비주류', '벤츠', '현대자동차', '기아', '현기차', '아우디', 'BMW', '외제차', '박스까남', '자동차 보험']</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>아우디 화이팅!
+재무덕후 이재용 회계사🤓와 함께하는
+소비문화 디깅 토크쇼, B주류경제학
+매주 목요일 오후 6시
+🔔구독, 좋아요, 알림 설정🔔
+머니그라피 인스타그램: https://www.instagram.com/moneygraphyworld/
+제휴/광고 문의: moneygraphy@toss.im
+#B주류경제학 #케이팝 #테슬라 #현대차 #박스까남</t>
+        </is>
+      </c>
+      <c r="U9" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="W9" t="n">
+        <v>26</v>
+      </c>
+      <c r="X9" t="n">
+        <v>10651.7</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>hu5pTgcVBvU</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>(1부) 현대차 이대로면 테슬라 조립공장 됩니다 (파인드어스 이재용 회계사)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=hu5pTgcVBvU</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/hu5pTgcVBvU/hqdefault.jpg</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>UCIUni4ScRp4mqPXsxy62L5w</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>언더스탠딩 : 세상의 모든 지식</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/channel/UCIUni4ScRp4mqPXsxy62L5w</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1280000</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2021-09-23T00:42:03.480744Z</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>3730</v>
+      </c>
+      <c r="K10" t="n">
+        <v>218237</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3645</v>
+      </c>
+      <c r="M10" t="n">
+        <v>903</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-12-03T09:15:04Z</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>2575</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>42:55</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>long_form</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>['삼프로TV', '백브리핑', '안승찬', '이진우', '삼프로', '경제의신과함께', '삼프로TV 백브리핑', '삼프로티비 백브리핑', '최준영', '컴퍼니백브리핑', '이프로', '어예진', '언더스탠딩', '김수헌', '이재용']</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[AI가 영상을 요약한 내용입니다]
+💡 내용 요약
+테슬라의 FSD가 상용화되며 자동차 개념이 달라지고 있고, 이 변화가 한국에서는 특히 현대차에 큰 위협이 될 것으로 설명됩니다. 현대차는 매출과 영업이익이 크게 늘었지만 주가는 5년째 박스권이며, R&amp;D도 상당 부분이 기존 모델 개발에 쓰여 테슬라처럼 자율주행·AI 같은 핵심 기술에 집중되지 못하고 있습니다. 기존 자동차는 부품사마다 ECU와 코드가 분산돼 있어 테슬라식 소프트웨어를 ‘사다 끼우는’ 방식이 구조적으로 불가능하며, 이를 바꾸려면 부품·조직 전체 권한을 재편해야 하는데 현실적으로 저항이 크다는 점도 지적됩니다. 현대차가 모셔널·포티투닷 등에 수조 원을 투자했지만 성과가 더딘 이유도 이 구조 때문으로 설명됩니다. 또한 리스·할부 판매 확대로 현금흐름이 빡빡해지고, 배당 확대는 기술 투자 여력을 약화시켜 장기 경쟁력에 위험이 될 수 있다는 우려로 결론을 맺습니다.
+📌 핵심 주제 5가지
+FSD 확산이 현대차에 가져올 충격
+</t>
+        </is>
+      </c>
+      <c r="U10" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="W10" t="n">
+        <v>20</v>
+      </c>
+      <c r="X10" t="n">
+        <v>10911.9</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>cHyeAKVnj5E</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>🔴"인생 바쳤는데 미래가 안 보인다" 전문직도 절규, 청년 고용률 '뚝' | SBS 이슈라이브</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=cHyeAKVnj5E</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/cHyeAKVnj5E/hqdefault.jpg</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>UCkinYTS9IHqOEwR1Sze2JTw</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>SBS 뉴스</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/channel/UCkinYTS9IHqOEwR1Sze2JTw</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5110000</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2014-05-02T10:13:29Z</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>314358</v>
+      </c>
+      <c r="K11" t="n">
+        <v>189152</v>
+      </c>
+      <c r="L11" t="n">
+        <v>925</v>
+      </c>
+      <c r="M11" t="n">
+        <v>139</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>2025-12-22T05:27:38Z</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>42897</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>11:54:57</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>long_form</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>['SBS NEWS', 'SBS뉴스', 'sbs뉴스', 'sbs8뉴스', '에스비에스', 'sbs 뉴스', 'SBS', '실시간', 'sbs 실시간', 'SBS 8뉴스', 'SBS 8시뉴스', 'SBS LIVE', 'sbs live', 'sbs 생중계', 'sbs 온에어', 'SBS 모닝와이드', 'sbs모바일24', '모바일24', 'sbsmobile24', 'sbs24시', 'sbs라이브']</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">인문계 취업난이 극심해지면서 '문과 전문직 3대장' 으로 불리는 변호사, 회계사, 세무사 시험에 합격한 청년들마저 '취업난'에 시달리고 있습니다. 매년 꾸준히 배출된 합격자 수가 포화 상태에 다다랐고, 신입이 맡던 업무를 AI가 대체하면서 일자리가 크게 줄었기 때문이라는 분석입니다.
+#취업난 #전문직 #문과 #청년 #고용률 #세무사 #회계사 #변호사 
+라이브 뉴스 채널 SBS 모바일24
+▶SBS 뉴스로 제보해주세요
+홈페이지: https://news.sbs.co.kr
+애플리케이션: 'SBS 뉴스' 앱 설치하고 제보
+카카오톡: 'SBS 뉴스'와 친구 맺고 채팅
+페이스북: 'SBS 뉴스' 검색해 메시지 전송
+이메일: sbs8news@sbs.co.kr
+문자:  #　누르고 6000 
+전화: 02-2113-6000
+▶SBS 뉴스 채널 구독하기 : https://n.sbs.co.kr/youtube
+▶SBS 뉴스 라이브 : https://n.sbs.co.kr/live
+Copyright Ⓒ </t>
+        </is>
+      </c>
+      <c r="U11" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1</v>
+      </c>
+      <c r="X11" t="n">
+        <v>189152</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>65.59999999999999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>iI31PfC-7Co</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>세금과 건강보험료 줄이고 돈버는 진짜 방법 | 절세미녀</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=iI31PfC-7Co</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/iI31PfC-7Co/hqdefault.jpg</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>UC2ByczqyZtt0Lj2DCkQuXJA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>절세미녀 김희연 회계사</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/channel/UC2ByczqyZtt0Lj2DCkQuXJA</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>123000</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2014-06-07T08:10:02Z</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>685</v>
+      </c>
+      <c r="K12" t="n">
+        <v>430098</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3504</v>
+      </c>
+      <c r="M12" t="n">
+        <v>88</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2025-11-28T05:28:28Z</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
+        <v>87</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>1:27</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>long_form</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>['절세미녀', '김희연 회계사']</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>※ 디자인택스 대표 '김희연 회계사'
+👉🏻카카오톡상담 : https://bit.ly/46CEeJL
+👉🏻 홈페이지 : https://bit.ly/3UDfcFj
+👉🏻 블로그 :  https://bit.ly/3LX9f1b
+👉🏻전화상담 : tel 02-785-1249
+#건강보험료줄이는방법 #건강보험료인상 #건강보험료계산
+[절세로 미래를 바꾸는 여자 : 디자인택스 세무회계 대표 김희연 회계사]
+- Email_designtax8899@naver.com
+- Instagram_@designtax
+- 연락처_02-785-1249
+- 주소_서울시 서초구 사임당로 174,강남미래타워 607호</t>
+        </is>
+      </c>
+      <c r="U12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="W12" t="n">
+        <v>25</v>
+      </c>
+      <c r="X12" t="n">
+        <v>17203.9</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>0_UYplspzSU</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>증여 지금 하지 마세요 상속세 준비만 미리 도와주세요  | 절세미녀</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=0_UYplspzSU</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/0_UYplspzSU/hqdefault.jpg</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>UC2ByczqyZtt0Lj2DCkQuXJA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>절세미녀 김희연 회계사</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/channel/UC2ByczqyZtt0Lj2DCkQuXJA</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>123000</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2014-06-07T08:10:02Z</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>685</v>
+      </c>
+      <c r="K13" t="n">
+        <v>362750</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2703</v>
+      </c>
+      <c r="M13" t="n">
+        <v>40</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>2025-12-03T04:40:40Z</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v>89</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>1:29</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>long_form</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>['절세미녀', '김희연 회계사']</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>※ 디자인택스 대표 '김희연 회계사'
+👉🏻카카오톡상담 : https://bit.ly/46CEeJL
+👉🏻 홈페이지 : https://bit.ly/3UDfcFj
+👉🏻 블로그 :  https://bit.ly/3LX9f1b
+👉🏻전화상담 : tel 02-785-1249
+#상속세 #상속세증여세 #종신보험 
+[절세로 미래를 바꾸는 여자 : 디자인택스 세무회계 대표 김희연 회계사]
+- Email_designtax8899@naver.com
+- Instagram_@designtax
+- 연락처_02-785-1249
+- 주소_서울시 서초구 사임당로 174,강남미래타워 607호</t>
+        </is>
+      </c>
+      <c r="U13" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="W13" t="n">
+        <v>20</v>
+      </c>
+      <c r="X13" t="n">
+        <v>18137.5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>PEV0bUsFMOA</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>"인생 바쳤는데 취업 안 돼" 절규…그래도 앞다퉈 "나도 자격증 딸래" (자막뉴스) / SBS</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=PEV0bUsFMOA</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/PEV0bUsFMOA/hqdefault.jpg</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>UCkinYTS9IHqOEwR1Sze2JTw</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>SBS 뉴스</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/channel/UCkinYTS9IHqOEwR1Sze2JTw</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5110000</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2014-05-02T10:13:29Z</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>314358</v>
+      </c>
+      <c r="K14" t="n">
+        <v>158785</v>
+      </c>
+      <c r="L14" t="n">
+        <v>896</v>
+      </c>
+      <c r="M14" t="n">
+        <v>828</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>2025-12-17T01:54:31Z</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
+        <v>153</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>2:33</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>long_form</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>['SBS NEWS', 'SBS 뉴스', 'ai', 'custom:뉴스넷', 'format:리포트', 'genre:사회', 'language:한국어', 'location:서울', 'person:김민정', 'sbs', 'sbs 실시간', 'series:뉴스영상', 'source:영상', 'type:방송', '노동 일자리', '뉴스 실시간', '뉸', '미지정 회계사', '법원', '분석', '실시간뉴스', '에스비에스', '취업난']</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>인문계 취업난이 극심해지면서 '문과 전문직 3대장' 으로 불리는 변호사, 회계사, 세무사 시험에 합격한 청년들마저 '취업난'에 시달리고 있습니다.
+매년 꾸준히 배출된 합격자 수가 포화 상태에 다다랐고, 신입이 맡던 업무를 AI가 대체하면서 일자리가 크게 줄었기 때문이라는 분석입니다.
+한국공인회계사회에 따르면 올해 9월 회계사 시험 합격자 1천 2백명 가운데 10월 말까지 수습 기관을 배정받지 못한 '미지정 회계사'는 전체의 40%에 달하는 443명입니다.
+군 입대자, 복학해 구직하지 않은 인원을 제외한 숫자입니다.
+미지정 회계사 문제가 심각해지자 금융위원회는 실무 수습 규제 완화, 기관 확대 등 제도 개선 논의에 착수한 상태입니다.
+한 때 '문과' 자격증의 '끝판왕'이라고 불렸던 변호사 자격증도 사정은 다르지 않습니다.
+올해 변호사시험 합격자 1천 7백 44명 가운데 대형 로펌에 취업하거나, 신임 검사, 법원 재판연구원으로 임용된 비율은 28%에 불과합니다.
+나머지 1천</t>
+        </is>
+      </c>
+      <c r="U14" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="W14" t="n">
+        <v>6</v>
+      </c>
+      <c r="X14" t="n">
+        <v>26464.2</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>q54Z3hijM4Y</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>현금으로 골드바 사서 자녀에게 몰래 증여한다면? | 절세미녀</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=q54Z3hijM4Y</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/q54Z3hijM4Y/hqdefault.jpg</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>UC2ByczqyZtt0Lj2DCkQuXJA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>절세미녀 김희연 회계사</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/channel/UC2ByczqyZtt0Lj2DCkQuXJA</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>123000</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2014-06-07T08:10:02Z</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>685</v>
+      </c>
+      <c r="K15" t="n">
+        <v>145306</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1510</v>
+      </c>
+      <c r="M15" t="n">
+        <v>396</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>2025-11-27T08:01:13Z</t>
+        </is>
+      </c>
+      <c r="O15" t="n">
+        <v>524</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>8:44</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>long_form</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>['절세미녀', '김희연 회계사', '골드바', '골드바 상속', '골드바 증여', '골드바 증여세', '골드바 상속세', '골드바 몰래', '금 몰래', '금 현금', '절세', '골드바 절세', '상속증여세', '자금출처조사', '사전증여', '사전증여신고', '종신보험', '고액현금거래보고', 'CTR', '금 투자']</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>※ 디자인택스 대표 '김희연 회계사'
+👉🏻카카오톡상담 : https://bit.ly/46CEeJL
+👉🏻 홈페이지 : https://bit.ly/3UDfcFj
+👉🏻 블로그 :  https://bit.ly/3LX9f1b
+👉🏻전화상담 : tel 02-785-1249
+#골드바증여 #골드바증여세 #상속세 #증여세
+[절세로 미래를 바꾸는 여자 : 디자인택스 세무회계 대표 김희연 회계사]
+- Email_designtax8899@naver.com
+- Instagram_@designtax
+- 연락처_02-785-1249
+- 주소_서울시 서초구 사임당로 174,강남미래타워 607호</t>
+        </is>
+      </c>
+      <c r="U15" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="W15" t="n">
+        <v>26</v>
+      </c>
+      <c r="X15" t="n">
+        <v>5588.7</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>VLgN0b7Cuj0</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>(2부) 돈 넘치는 테슬라, 빚 커지는 현대차 (파인드어스 이재용 회계사)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=VLgN0b7Cuj0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/VLgN0b7Cuj0/hqdefault.jpg</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>UCIUni4ScRp4mqPXsxy62L5w</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>언더스탠딩 : 세상의 모든 지식</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/channel/UCIUni4ScRp4mqPXsxy62L5w</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1280000</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2021-09-23T00:42:03.480744Z</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>3730</v>
+      </c>
+      <c r="K16" t="n">
+        <v>142302</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2658</v>
+      </c>
+      <c r="M16" t="n">
+        <v>586</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>2025-12-03T12:30:47Z</t>
+        </is>
+      </c>
+      <c r="O16" t="n">
+        <v>1806</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>30:06</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>long_form</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>['삼프로TV', '백브리핑', '안승찬', '이진우', '삼프로', '경제의신과함께', '삼프로TV 백브리핑', '삼프로티비 백브리핑', '최준영', '컴퍼니백브리핑', '이프로', '어예진', '언더스탠딩', '김수헌', '이재용']</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>[AI가 영상을 요약한 내용입니다]
+💡 내용 요약
+테슬라는 낮은 부채비율과 60조 원대 현금, 높은 주가를 활용한 유상증자 덕분에 투자 여력이 크지만, 현대차는 60년간 쌓은 이익잉여금 중심의 자본 구조와 제한된 현금 때문에 과감한 미래 투자에 제약이 있다는 점이 강조됩니다. 현대차가 말하는 ‘전동화’는 여전히 내연기관 관성이 남은 표현으로 보이고, 자율주행 역시 구체적 전략보다 선언적 문구가 많아 기술 전환 속도가 더딘 모습입니다. 전통 완성차의 복잡한 ECU 구조와 룰베이스 방식은 엔드투엔드·자체 칩·대규모 데이터 기반 방식으로의 전환을 어렵게 만들며, 하이브리드 호황이 당장 이익은 주지만 구조 개편을 더 늦추는 독약 역할을 할 수 있다는 지적이 나옵니다. 결국 현대차가 생존하려면 ECU 통합, 전용 칩, 대규모 데이터 수집, 구체적 자율주행 로드맵 등 ‘전면적 설계 변경’ 수준의 결단이 필요하다는 메시지로 정리됩니다.
+📌 핵심 주제 5가지
+테슬라와 현대차 자본력·현금 여력의</t>
+        </is>
+      </c>
+      <c r="U16" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="W16" t="n">
+        <v>20</v>
+      </c>
+      <c r="X16" t="n">
+        <v>7115.1</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Jsl2Oe5Lfkc</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>억대 연봉 벌던 회계사가 주식 전업 투자자가 된 이유 [양현일 회계사]</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=Jsl2Oe5Lfkc</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/Jsl2Oe5Lfkc/hqdefault.jpg</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>UCKR3cXHN4kCRbD9Eaa-ROpQ</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Turbo832 TV</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/channel/UCKR3cXHN4kCRbD9Eaa-ROpQ</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>377000</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2017-11-14T11:39:25Z</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>1638</v>
+      </c>
+      <c r="K17" t="n">
+        <v>138456</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2460</v>
+      </c>
+      <c r="M17" t="n">
+        <v>363</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>2025-12-02T08:00:18Z</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
+        <v>1979</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>32:59</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>long_form</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>오늘은 치열한 경쟁을 뚫고 합격한 회계사를 떄려치고 전업 투자자의 삶을 살고 있는 양현일 회계사와 주식 투자에 대한 이야기를 나눠봤습니다. 
+영상이 유익하셨다면 구독과 좋아요 부탁드립니다!
+[섭외 문의 / 부동산, 차량, 인터뷰 섭외 문의는 아래 메일로 해주세요!]
+turbo832.pd@gmail.com
+[채널 회원가입 혜택]
+https://www.youtube.com/channel/UCKR3cXHN4kCRbD9Eaa-ROpQ/join
+- 회원전용 동영상 : 라이브 풀버젼 / 부동산 임장 매운맛 후기(감독판) 
+- 부동산 임장 등 리포트 제공
+- 북토크 오프라인 우선 초대권</t>
+        </is>
+      </c>
+      <c r="U17" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="W17" t="n">
+        <v>21</v>
+      </c>
+      <c r="X17" t="n">
+        <v>6593.1</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>HCWQVyP35lE</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>테슬라 FSD를 타본 주식 전업 투자자가 깜짝 놀란 이유 (feat. 양현일 회계사)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=HCWQVyP35lE</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/HCWQVyP35lE/hqdefault.jpg</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>UCKR3cXHN4kCRbD9Eaa-ROpQ</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Turbo832 TV</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/channel/UCKR3cXHN4kCRbD9Eaa-ROpQ</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>377000</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2017-11-14T11:39:25Z</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>1638</v>
+      </c>
+      <c r="K18" t="n">
+        <v>94766</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1445</v>
+      </c>
+      <c r="M18" t="n">
+        <v>290</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>2025-12-09T08:00:32Z</t>
+        </is>
+      </c>
+      <c r="O18" t="n">
+        <v>1172</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>19:32</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>long_form</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>['터보', '터보832', '리뷰', '테슬라', '모델x', '자율주행', 'fsd']</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>촬영일 2025. 12. 03. 
+*본 영상은 주식 매도/매수에 대한 추천을 하는 영상이 아니니 참고 바랍니다.
+오늘은 양현실 회계사와 테슬라 FSD 자율주행을 직접 경험해보며 주식과 관련된 이야기도 딥하게 나눠보는 시간을 가져보았습니다.
+영상이 유익하셨다면 구독과 좋아요 부탁드립니다!
+[섭외 문의 / 부동산, 차량, 인터뷰 섭외 문의는 아래 메일로 해주세요!]
+turbo832.pd@gmail.com
+[채널 회원가입 혜택]
+https://www.youtube.com/channel/UCKR3cXHN4kCRbD9Eaa-ROpQ/join
+- 회원전용 동영상 : 라이브 풀버젼 / 부동산 임장 매운맛 후기(감독판) 
+- 부동산 임장 등 리포트 제공
+- 북토크 오프라인 우선 초대권</t>
+        </is>
+      </c>
+      <c r="U18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W18" t="n">
+        <v>14</v>
+      </c>
+      <c r="X18" t="n">
+        <v>6769</v>
+      </c>
+      <c r="Y18" t="n">
         <v>25.1</v>
       </c>
-      <c r="V2" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="W2" t="n">
-        <v>22</v>
-      </c>
-      <c r="X2" t="n">
-        <v>44043.9</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>79.40000000000001</v>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>wV0nFEzzUZs</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>고시 붙고도 3분의 1 백수…알바 전전하는 회계사들 "그만 뽑아라" [MBN 뉴스센터]</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=wV0nFEzzUZs</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/wV0nFEzzUZs/hqdefault.jpg</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>UCG9aFJTZ-lMCHAiO1KJsirg</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>MBN News</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/channel/UCG9aFJTZ-lMCHAiO1KJsirg</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2540000</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2006-03-05T05:34:55Z</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>247769</v>
+      </c>
+      <c r="K19" t="n">
+        <v>84387</v>
+      </c>
+      <c r="L19" t="n">
+        <v>894</v>
+      </c>
+      <c r="M19" t="n">
+        <v>852</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>2025-12-13T11:20:24Z</t>
+        </is>
+      </c>
+      <c r="O19" t="n">
+        <v>133</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>2:13</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>long_form</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>['MBN', 'MBN뉴스', 'MBN뉴스센터', '엠비엔뉴스', '강영호', '정아영', '고시', '공인회계사', '취업', '회계사']</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>【 앵커멘트 】
+  공인회계사 시험에 붙어도 요즘 3분의 1 가량은 취업을 하지 못하고 있다고 합니다.
+  이렇다보니 편의점이나 택배 알바를 뛰는 회계사도 있다는데, 높은 소득과 안정된 직장을 보장해 3대 고시로 불렸던 시험이 어쩌다 이렇게 된 걸까요?
+  강서영 기자가 취재했습니다.
+【 기자 】
+  올해 9월 공인회계사 시험에 합격한 29살 A씨.
+  크고 작은 회계법인에 원서를 넣었지만 모두 합격 통지를 받지 못했고, 석 달이 지난 지금도 일을 하지 못하고 있습니다.
+  생활비는 아르바이트로 마련합니다.
+▶ 인터뷰 : A씨 / 미취업 회계사
+- "그냥 뭐 택배 알바 상하차 알바, 알바를 좀 구하고 있고요. 그리고 집에서 할 거 없으니까 운동이라도 좀 하고."
+▶ 스탠딩 : 강서영 / 기자
+- "이렇게 A씨처럼 회계사 자격증을 땄는데도 아직 취업하지 못한 인원은 약 600명, 
+  올해 합격자만 놓고 보면 3명 중 1명인 400명이 미취업 상태인 것으로 추산되고 있습니</t>
+        </is>
+      </c>
+      <c r="U19" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="W19" t="n">
+        <v>10</v>
+      </c>
+      <c r="X19" t="n">
+        <v>8438.700000000001</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>C5mI5sc9xSI</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>법인 돈 10억! 세금 4억 낼래? 아니면 6,700만원 낼래? | 절세미녀</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=C5mI5sc9xSI</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/C5mI5sc9xSI/hqdefault.jpg</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>UC2ByczqyZtt0Lj2DCkQuXJA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>절세미녀 김희연 회계사</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/channel/UC2ByczqyZtt0Lj2DCkQuXJA</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>123000</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2014-06-07T08:10:02Z</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>685</v>
+      </c>
+      <c r="K20" t="n">
+        <v>195664</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1039</v>
+      </c>
+      <c r="M20" t="n">
+        <v>36</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>2025-12-12T04:00:10Z</t>
+        </is>
+      </c>
+      <c r="O20" t="n">
+        <v>64</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>1:04</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>long_form</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>['절세미녀', '김희연 회계사']</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>※ 디자인택스 대표 '김희연 회계사'
+👉🏻카카오톡상담 : https://bit.ly/46CEeJL
+👉🏻 홈페이지 : https://bit.ly/3UDfcFj
+👉🏻 블로그 :  https://bit.ly/3LX9f1b
+👉🏻전화상담 : tel 02-785-1249
+#법인사업자 #법인돈  #법인돈사용법
+[절세로 미래를 바꾸는 여자 : 디자인택스 세무회계 대표 김희연 회계사]
+- Email_designtax8899@naver.com
+- Instagram_@designtax
+- 연락처_02-785-1249
+- 주소_서울시 서초구 사임당로 174,강남미래타워 607호</t>
+        </is>
+      </c>
+      <c r="U20" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="W20" t="n">
+        <v>11</v>
+      </c>
+      <c r="X20" t="n">
+        <v>17787.6</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>njm1Ud0mbg8</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>"한국을 탈출하는 부자들" 자녀한테 내 재산 그대로 물려주는 법  (부자들의 은밀한 술토크 ㅣ 절세미녀 김희연 회계사)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=njm1Ud0mbg8</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/njm1Ud0mbg8/hqdefault.jpg</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>UCYigs8o_hgHJtfE0KnqVLeA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>장사건물주 강호동</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/channel/UCYigs8o_hgHJtfE0KnqVLeA</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>322000</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2020-11-06T02:35:34.711605Z</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>1822</v>
+      </c>
+      <c r="K21" t="n">
+        <v>78351</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1176</v>
+      </c>
+      <c r="M21" t="n">
+        <v>278</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>2025-12-09T11:00:07Z</t>
+        </is>
+      </c>
+      <c r="O21" t="n">
+        <v>1169</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>19:29</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>long_form</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>['창업오빠', '강호동', '창업', '자영업', '장사의신', '서민갑부', '건물주', '꼬마빌딩', '재테크', '제테크', '장사', '라라브레드', '디저트', '카페', '디저트카페', '브이로그', '대표', '예능', '부동산', '레버리지']</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>[절세미녀 김희연 회계사 유튜브]
+https://www.youtube.com/@%EC%84%B8%EA%B8%88%EC%A0%84%EB%AC%B8%ED%9A%8C%EA%B3%84%EC%82%AC%EA%B9%80%ED%9D%AC%EC%97%B0
+[생마차 창업] 가맹비,교육비 전액 지원
+가맹 상담 1599-4295
+홈페이지 https://www.beer1900.com/
+00:00 부자들이 한국을 몰래 떠나는 진짜 이유
+08:54 자녀한테 전세자금 무조건 이렇게 주세요
+14:31 200억 건물 팔아도 50억 남는 이유</t>
+        </is>
+      </c>
+      <c r="U21" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="W21" t="n">
+        <v>14</v>
+      </c>
+      <c r="X21" t="n">
+        <v>5596.5</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3NoD3SxIC-E</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>부가세 신고! 매출 0원이면 안 해도 될까요? | 절세미녀</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=3NoD3SxIC-E</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/3NoD3SxIC-E/hqdefault.jpg</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>UC2ByczqyZtt0Lj2DCkQuXJA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>절세미녀 김희연 회계사</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/channel/UC2ByczqyZtt0Lj2DCkQuXJA</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>123000</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2014-06-07T08:10:02Z</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>685</v>
+      </c>
+      <c r="K22" t="n">
+        <v>125227</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1056</v>
+      </c>
+      <c r="M22" t="n">
+        <v>47</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>2025-12-17T04:30:00Z</t>
+        </is>
+      </c>
+      <c r="O22" t="n">
+        <v>78</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>1:18</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>long_form</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>['절세미녀', '김희연 회계사']</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>※ 디자인택스 대표 '김희연 회계사'
+👉🏻카카오톡상담 : https://bit.ly/46CEeJL
+👉🏻 홈페이지 : https://bit.ly/3UDfcFj
+👉🏻 블로그 :  https://bit.ly/3LX9f1b
+👉🏻전화상담 : tel 02-785-1249
+#부가세신고 #부가세신고방법 #부가세신고일반과세자 
+[절세로 미래를 바꾸는 여자 : 디자인택스 세무회계 대표 김희연 회계사]
+- Email_designtax8899@naver.com
+- Instagram_@designtax
+- 연락처_02-785-1249
+- 주소_서울시 서초구 사임당로 174,강남미래타워 607호</t>
+        </is>
+      </c>
+      <c r="U22" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="W22" t="n">
+        <v>6</v>
+      </c>
+      <c r="X22" t="n">
+        <v>20871.2</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>-dp7hvo0C2c</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>[깡냉이톡썰]회계사로 26살에 자취 2년하며 결혼자금 7천 모았는데 시댁에서 1억 해준다고 생색내는 예비신랑과 시모. 파혼하고 10년 후 마트에서 만난 예비신랑의 최후가...</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=-dp7hvo0C2c</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/-dp7hvo0C2c/hqdefault.jpg</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>UCYs1w-vNnaLn8rzWLSa48CQ</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>깡냉이톡썰</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/channel/UCYs1w-vNnaLn8rzWLSa48CQ</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>70100</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2022-05-06T12:42:50.319657Z</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>2462</v>
+      </c>
+      <c r="K23" t="n">
+        <v>22316</v>
+      </c>
+      <c r="L23" t="n">
+        <v>586</v>
+      </c>
+      <c r="M23" t="n">
+        <v>95</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>2025-12-16T09:30:01Z</t>
+        </is>
+      </c>
+      <c r="O23" t="n">
+        <v>2093</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>34:53</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>long_form</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>['깡냉이톡썰', '썰톡', '카카오톡', '카카오', '톡톡사이다', '사연을부탁해', '사이다사연', '반전사연', '실화사연', '사연쌀롱', '봉이언니', '네이트판', '카톡썰', '카톡', '시어머니', '시아버지', '시누이', '결혼', '이혼', '파혼', '제사', '시댁', '남편', '상간녀', '바람', '사이다썰', '사이다톡', '먹방', '임신', '몰아보기', '참교육', '강냉이톡썰', '드라마', '썰극장', '썰티비', '썰밤', '갓쇼', '톡툰', '영상툰', '사이다툰']</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>오늘의 사연
+**등장인물**
+나=이뤄진기도
+예비신랑=뒤늦은후회
+예비신랑여친=멸망이왔다
+예비시부=국가유공자
+예비시모=친일파
+버스기사=정의실현
+손님1=진상퇴치
+손님2=존경심
+피해자=모두가내편
+사모=한방에
+직원1-암행어사
+직원2-출두요
+재미있게 시청해주세요^^
+[깡냉이톡썰]회계사로 26살에 자취 2년하며 결혼자금 7천 모았는데 시댁에서 1억 해준다고 생색내는 예비신랑과 시모. 파혼하고 10년 후 마트에서 만난 예비신랑의 최후가../사이다사연/라디오드라마/영상툰</t>
+        </is>
+      </c>
+      <c r="U23" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="V23" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="W23" t="n">
+        <v>7</v>
+      </c>
+      <c r="X23" t="n">
+        <v>3188</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>33.7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>fFN2sHoIhY4</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>상속세 폭탄 막는 방법!  퇴직금 10억을 챙기는 진짜 이유  | 절세미녀</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=fFN2sHoIhY4</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/fFN2sHoIhY4/hqdefault.jpg</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>UC2ByczqyZtt0Lj2DCkQuXJA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>절세미녀 김희연 회계사</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/channel/UC2ByczqyZtt0Lj2DCkQuXJA</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>123000</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2014-06-07T08:10:02Z</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>685</v>
+      </c>
+      <c r="K24" t="n">
+        <v>48529</v>
+      </c>
+      <c r="L24" t="n">
+        <v>461</v>
+      </c>
+      <c r="M24" t="n">
+        <v>13</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>2025-12-19T04:00:00Z</t>
+        </is>
+      </c>
+      <c r="O24" t="n">
+        <v>63</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>1:03</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>long_form</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>['절세미녀', '김희연 회계사']</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>※ 디자인택스 대표 '김희연 회계사'
+👉🏻카카오톡상담 : https://bit.ly/46CEeJL
+👉🏻 홈페이지 : https://bit.ly/3UDfcFj
+👉🏻 블로그 :  https://bit.ly/3LX9f1b
+👉🏻전화상담 : tel 02-785-1249
+#상속세 #상속세개정 #퇴직금 
+[절세로 미래를 바꾸는 여자 : 디자인택스 세무회계 대표 김희연 회계사]
+- Email_designtax8899@naver.com
+- Instagram_@designtax
+- 연락처_02-785-1249
+- 주소_서울시 서초구 사임당로 174,강남미래타워 607호</t>
+        </is>
+      </c>
+      <c r="U24" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="W24" t="n">
+        <v>4</v>
+      </c>
+      <c r="X24" t="n">
+        <v>12132.2</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>rq8vm10Z6jI</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>부가세 환급 제대로 받는 방법 '이거'모르면 10%는 날라 가요!  | 절세미녀</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=rq8vm10Z6jI</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/rq8vm10Z6jI/hqdefault.jpg</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>UC2ByczqyZtt0Lj2DCkQuXJA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>절세미녀 김희연 회계사</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/channel/UC2ByczqyZtt0Lj2DCkQuXJA</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>123000</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2014-06-07T08:10:02Z</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>685</v>
+      </c>
+      <c r="K25" t="n">
+        <v>53602</v>
+      </c>
+      <c r="L25" t="n">
+        <v>447</v>
+      </c>
+      <c r="M25" t="n">
+        <v>14</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>2025-12-18T04:56:46Z</t>
+        </is>
+      </c>
+      <c r="O25" t="n">
+        <v>64</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>1:04</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>long_form</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>['절세미녀', '김희연 회계사']</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>※ 디자인택스 대표 '김희연 회계사'
+👉🏻카카오톡상담 : https://bit.ly/46CEeJL
+👉🏻 홈페이지 : https://bit.ly/3UDfcFj
+👉🏻 블로그 :  https://bit.ly/3LX9f1b
+👉🏻전화상담 : tel 02-785-1249
+#부가세신고 #매입세액공제불공제 #부가세신고방법 
+[절세로 미래를 바꾸는 여자 : 디자인택스 세무회계 대표 김희연 회계사]
+- Email_designtax8899@naver.com
+- Instagram_@designtax
+- 연락처_02-785-1249
+- 주소_서울시 서초구 사임당로 174,강남미래타워 607호</t>
+        </is>
+      </c>
+      <c r="U25" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="W25" t="n">
+        <v>5</v>
+      </c>
+      <c r="X25" t="n">
+        <v>10720.4</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>jxt-qL6UjKU</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025 공인회계사 최종 합격자 출신 대학 순위에 대해 알아보자!</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=jxt-qL6UjKU</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/jxt-qL6UjKU/hqdefault.jpg</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>UCc7juLCt3ijY7iASY8vmaug</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>지식저장소</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/channel/UCc7juLCt3ijY7iASY8vmaug</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>61400</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2022-03-17T13:40:00.813162Z</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>1923</v>
+      </c>
+      <c r="K26" t="n">
+        <v>22089</v>
+      </c>
+      <c r="L26" t="n">
+        <v>276</v>
+      </c>
+      <c r="M26" t="n">
+        <v>94</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>2025-12-05T10:01:22Z</t>
+        </is>
+      </c>
+      <c r="O26" t="n">
+        <v>594</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>9:54</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>long_form</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>2025년 공인회계사 최종 시험 합격자의 출신 대학 순위입니다. 1위는 고려대, 2위 연세대, 3위 서울대, 4위 성균관대 순이었습니다.
+#대학순위 #대학랭킹 #대학서열 #고려대 #연세대 #성균관대 #중앙대 #경희대 #서울대 #서강대 #한양대 #이화여대 #동국대 #건국대 #숭실대 #서울시립대 #경북대 #부산대 #전남대 #한국외대 #홍익대 #국민대 #세종대 #단국대 #가톨릭대 #서울과기대 #영남대 #부경대 #광운대 #숙명여대 #한국공대 #한국기술교육대 #한성대 #수원대 #가천대 #회계사학벌 #세무사학벌 #공인회계사 #CPA #로스쿨 #행정고시 #지식저장소 #고시출신대학 #세무사 #감정평가사 #노무사 #관세사 #변리사</t>
+        </is>
+      </c>
+      <c r="U26" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="W26" t="n">
+        <v>18</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1227.2</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>pmUH3C2jO5Q</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Sony a7m5 : 플래그십을 넘보다! [YK리뷰]</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=pmUH3C2jO5Q</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/pmUH3C2jO5Q/hqdefault.jpg</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>UC71UMFCwR2m0-mSsFgkPJwg</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>사진찍는회계사</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/channel/UC71UMFCwR2m0-mSsFgkPJwg</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>96800</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2018-11-08T04:47:32Z</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>577</v>
+      </c>
+      <c r="K27" t="n">
+        <v>22356</v>
+      </c>
+      <c r="L27" t="n">
+        <v>431</v>
+      </c>
+      <c r="M27" t="n">
+        <v>244</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>2025-12-02T14:00:01Z</t>
+        </is>
+      </c>
+      <c r="O27" t="n">
+        <v>2372</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>39:32</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>long_form</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>0:00 오프닝
+0:55 바디의 외관
+3:17 부분적층형 센서
+6:33 이미지퀄리티
+10:58 연사와 버퍼
+15:18 영상기능
+26:16 압도적 AF
+33:31 각종 편의기능
+37:01 총평!
+ㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡ
+"사진찍는회계사의 오픈카톡방"
+사진 : https://open.kakao.com/o/gci07hob
+회계 : https://open.kakao.com/o/gkCJApob
+주의!
+오픈카톡방 입장퀴즈와 비번은 스스로 알아내셔야 하며 힌트를 드리지 못합니다.
+그리고 카톡방은 여러가지 이유에서 다소 배타적으로 운영되고 있으니 입장한 이후에는 공지사항을 꼭 읽어주세요. 그렇지 않으면 입장 이후 바로 퇴장조치 될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="U27" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="V27" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="W27" t="n">
+        <v>21</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1064.6</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>31.3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>wre5OTytqHw</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>M&amp;A 회사 대표가 아정당을 파봤다 | 책 쓰는 중</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=wre5OTytqHw</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/wre5OTytqHw/hqdefault.jpg</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>UClhPqabyOHBxJzMkQ7k-pxg</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>오늘부터 회계사</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/channel/UClhPqabyOHBxJzMkQ7k-pxg</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>110000</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2020-11-05T01:55:59.554653Z</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>728</v>
+      </c>
+      <c r="K28" t="n">
+        <v>21075</v>
+      </c>
+      <c r="L28" t="n">
+        <v>471</v>
+      </c>
+      <c r="M28" t="n">
+        <v>50</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>2025-11-28T08:01:17Z</t>
+        </is>
+      </c>
+      <c r="O28" t="n">
+        <v>1905</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>31:45</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>long_form</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>['양김권TV', '오늘부터회계사', '회계법인마일스톤', '슈카', '14f', '소비더머니', '회계사강의', '기업분석', '재무제표분석', '강남회계사', '강남회계법인', '양제경회계사', '김규현회계사', '권순환회계사']</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>*MMP*
+💡홈페이지 https://www.mmp.co.kr/
+💡상담하기 https://www.mmp.co.kr/m61.php
+*회계법인 마일스톤*
+💰홈페이지 https://www.mstacc.com
+💰스타트업에게 유용한 칼럼들 https://blog.mstacc.com/
+💰채팅으로 상담하기 https://eez13.channel.io/home
+ *광고&amp;제휴 문의*
+💬 contact@mstacc.com
+#회계법인마일스톤 #아정당  #MMP</t>
+        </is>
+      </c>
+      <c r="U28" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="V28" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="W28" t="n">
+        <v>25</v>
+      </c>
+      <c r="X28" t="n">
+        <v>843</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>25.5</v>
       </c>
     </row>
   </sheetData>
